--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H2">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J2">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N2">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O2">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P2">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q2">
-        <v>2.383630931442445</v>
+        <v>2.335696859456333</v>
       </c>
       <c r="R2">
-        <v>21.452678382982</v>
+        <v>21.021271735107</v>
       </c>
       <c r="S2">
-        <v>0.0006228826735053441</v>
+        <v>0.000395093356466593</v>
       </c>
       <c r="T2">
-        <v>0.000622882673505344</v>
+        <v>0.000395093356466593</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H3">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J3">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N3">
         <v>2.165195</v>
       </c>
       <c r="O3">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P3">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q3">
-        <v>0.435943729381111</v>
+        <v>0.3494434673994445</v>
       </c>
       <c r="R3">
-        <v>3.923493564429999</v>
+        <v>3.144991206595</v>
       </c>
       <c r="S3">
-        <v>0.0001139193958565029</v>
+        <v>5.910989342268802E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001139193958565029</v>
+        <v>5.910989342268801E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H4">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J4">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N4">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O4">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P4">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q4">
-        <v>1.408083376827111</v>
+        <v>2.284654464560222</v>
       </c>
       <c r="R4">
-        <v>12.672750391444</v>
+        <v>20.561890181042</v>
       </c>
       <c r="S4">
-        <v>0.000367955763078535</v>
+        <v>0.0003864593117531485</v>
       </c>
       <c r="T4">
-        <v>0.0003679557630785349</v>
+        <v>0.0003864593117531485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H5">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I5">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J5">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N5">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O5">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P5">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q5">
-        <v>19.85813923582622</v>
+        <v>13.54602669861545</v>
       </c>
       <c r="R5">
-        <v>178.723253122436</v>
+        <v>121.914240287539</v>
       </c>
       <c r="S5">
-        <v>0.005189264283698308</v>
+        <v>0.002291369761223124</v>
       </c>
       <c r="T5">
-        <v>0.005189264283698307</v>
+        <v>0.002291369761223123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6040246666666667</v>
+        <v>0.4841736666666667</v>
       </c>
       <c r="H6">
-        <v>1.812074</v>
+        <v>1.452521</v>
       </c>
       <c r="I6">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="J6">
-        <v>0.007395659364387973</v>
+        <v>0.003342651198412304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N6">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O6">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P6">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q6">
-        <v>4.215716268649111</v>
+        <v>1.245128114925333</v>
       </c>
       <c r="R6">
-        <v>37.941446417842</v>
+        <v>11.206153034328</v>
       </c>
       <c r="S6">
-        <v>0.001101637248249284</v>
+        <v>0.0002106188755467515</v>
       </c>
       <c r="T6">
-        <v>0.001101637248249283</v>
+        <v>0.0002106188755467514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J7">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N7">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O7">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P7">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q7">
-        <v>4.434777342809334</v>
+        <v>5.421291921844001</v>
       </c>
       <c r="R7">
-        <v>39.91299608528401</v>
+        <v>48.79162729659601</v>
       </c>
       <c r="S7">
-        <v>0.001158881574849501</v>
+        <v>0.000917035279263566</v>
       </c>
       <c r="T7">
-        <v>0.001158881574849501</v>
+        <v>0.000917035279263566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J8">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N8">
         <v>2.165195</v>
       </c>
       <c r="O8">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P8">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q8">
-        <v>0.8110791600733334</v>
+        <v>0.8110791600733336</v>
       </c>
       <c r="R8">
-        <v>7.29971244066</v>
+        <v>7.299712440660001</v>
       </c>
       <c r="S8">
-        <v>0.0002119485651015708</v>
+        <v>0.0001371975932647647</v>
       </c>
       <c r="T8">
-        <v>0.0002119485651015708</v>
+        <v>0.0001371975932647647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J9">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N9">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O9">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P9">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q9">
-        <v>2.619758022925334</v>
+        <v>5.302819474530668</v>
       </c>
       <c r="R9">
-        <v>23.577822206328</v>
+        <v>47.72537527077601</v>
       </c>
       <c r="S9">
-        <v>0.0006845866361825268</v>
+        <v>0.0008969951457726422</v>
       </c>
       <c r="T9">
-        <v>0.0006845866361825267</v>
+        <v>0.0008969951457726422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.371388</v>
       </c>
       <c r="I10">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J10">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N10">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O10">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P10">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q10">
-        <v>36.94633459891467</v>
+        <v>31.44113707092134</v>
       </c>
       <c r="R10">
-        <v>332.517011390232</v>
+        <v>282.9702336382921</v>
       </c>
       <c r="S10">
-        <v>0.009654695853971235</v>
+        <v>0.005318406079189564</v>
       </c>
       <c r="T10">
-        <v>0.009654695853971234</v>
+        <v>0.005318406079189563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.371388</v>
       </c>
       <c r="I11">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="J11">
-        <v>0.0137597235174641</v>
+        <v>0.00775849308788848</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N11">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O11">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P11">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q11">
-        <v>7.843396704289336</v>
+        <v>2.890016726176</v>
       </c>
       <c r="R11">
-        <v>70.59057033860401</v>
+        <v>26.010150535584</v>
       </c>
       <c r="S11">
-        <v>0.002049610887359268</v>
+        <v>0.0004888589903979436</v>
       </c>
       <c r="T11">
-        <v>0.002049610887359267</v>
+        <v>0.0004888589903979435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H12">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I12">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J12">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N12">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O12">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P12">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q12">
-        <v>111.0221323082791</v>
+        <v>414.6422122870116</v>
       </c>
       <c r="R12">
-        <v>999.1991907745121</v>
+        <v>3731.779910583105</v>
       </c>
       <c r="S12">
-        <v>0.02901194210825114</v>
+        <v>0.07013854675616636</v>
       </c>
       <c r="T12">
-        <v>0.02901194210825113</v>
+        <v>0.07013854675616636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H13">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I13">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J13">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N13">
         <v>2.165195</v>
       </c>
       <c r="O13">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P13">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q13">
-        <v>20.30490616809778</v>
+        <v>62.03459657238056</v>
       </c>
       <c r="R13">
-        <v>182.74415551288</v>
+        <v>558.311369151425</v>
       </c>
       <c r="S13">
-        <v>0.005306011963691991</v>
+        <v>0.01049342378382859</v>
       </c>
       <c r="T13">
-        <v>0.005306011963691989</v>
+        <v>0.01049342378382859</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H14">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I14">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J14">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N14">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O14">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P14">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q14">
-        <v>65.58415436763377</v>
+        <v>405.5809629838477</v>
       </c>
       <c r="R14">
-        <v>590.257389308704</v>
+        <v>3650.22866685463</v>
       </c>
       <c r="S14">
-        <v>0.01713823766642345</v>
+        <v>0.06860579673919674</v>
       </c>
       <c r="T14">
-        <v>0.01713823766642345</v>
+        <v>0.06860579673919674</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H15">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I15">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J15">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N15">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O15">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P15">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q15">
-        <v>924.9305052028195</v>
+        <v>2404.74462911262</v>
       </c>
       <c r="R15">
-        <v>8324.374546825376</v>
+        <v>21642.70166201358</v>
       </c>
       <c r="S15">
-        <v>0.2416998278918717</v>
+        <v>0.4067730892022805</v>
       </c>
       <c r="T15">
-        <v>0.2416998278918717</v>
+        <v>0.4067730892022804</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.13359466666667</v>
+        <v>85.95243833333332</v>
       </c>
       <c r="H16">
-        <v>84.400784</v>
+        <v>257.857315</v>
       </c>
       <c r="I16">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="J16">
-        <v>0.3444668642402499</v>
+        <v>0.5934007584084009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N16">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O16">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P16">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q16">
-        <v>196.3549822995858</v>
+        <v>221.0401037545466</v>
       </c>
       <c r="R16">
-        <v>1767.194840696272</v>
+        <v>1989.36093379092</v>
       </c>
       <c r="S16">
-        <v>0.05131084461001162</v>
+        <v>0.03738990192692875</v>
       </c>
       <c r="T16">
-        <v>0.0513108446100116</v>
+        <v>0.03738990192692875</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H17">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I17">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J17">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N17">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O17">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P17">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q17">
-        <v>9.032397910999554</v>
+        <v>9.367822851705668</v>
       </c>
       <c r="R17">
-        <v>81.291581198996</v>
+        <v>84.31040566535101</v>
       </c>
       <c r="S17">
-        <v>0.00236031681111088</v>
+        <v>0.001584608275804396</v>
       </c>
       <c r="T17">
-        <v>0.00236031681111088</v>
+        <v>0.001584608275804396</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H18">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I18">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J18">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N18">
         <v>2.165195</v>
       </c>
       <c r="O18">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P18">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q18">
-        <v>1.651940817948888</v>
+        <v>1.401519416370556</v>
       </c>
       <c r="R18">
-        <v>14.86746736154</v>
+        <v>12.613674747335</v>
       </c>
       <c r="S18">
-        <v>0.0004316797955520464</v>
+        <v>0.0002370731493366105</v>
       </c>
       <c r="T18">
-        <v>0.0004316797955520464</v>
+        <v>0.0002370731493366104</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H19">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I19">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J19">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N19">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O19">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P19">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q19">
-        <v>5.335712497936888</v>
+        <v>9.16310616881178</v>
       </c>
       <c r="R19">
-        <v>48.02141248143199</v>
+        <v>82.46795551930602</v>
       </c>
       <c r="S19">
-        <v>0.00139431101599256</v>
+        <v>0.001549979552028965</v>
       </c>
       <c r="T19">
-        <v>0.00139431101599256</v>
+        <v>0.001549979552028965</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H20">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I20">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J20">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N20">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O20">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P20">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q20">
-        <v>75.24932361968976</v>
+        <v>54.32930131465857</v>
       </c>
       <c r="R20">
-        <v>677.243912577208</v>
+        <v>488.9637118319271</v>
       </c>
       <c r="S20">
-        <v>0.01966390822397035</v>
+        <v>0.009190039334081074</v>
       </c>
       <c r="T20">
-        <v>0.01966390822397035</v>
+        <v>0.009190039334081072</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.288857333333333</v>
+        <v>1.941884333333334</v>
       </c>
       <c r="H21">
-        <v>6.866572</v>
+        <v>5.825653000000001</v>
       </c>
       <c r="I21">
-        <v>0.0280246985018516</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="J21">
-        <v>0.02802469850185161</v>
+        <v>0.01340643335413687</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N21">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O21">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P21">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q21">
-        <v>15.97479975445289</v>
+        <v>4.993858497122667</v>
       </c>
       <c r="R21">
-        <v>143.773197790076</v>
+        <v>44.94472647410401</v>
       </c>
       <c r="S21">
-        <v>0.004174482655225769</v>
+        <v>0.0008447330428858237</v>
       </c>
       <c r="T21">
-        <v>0.004174482655225768</v>
+        <v>0.0008447330428858234</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H22">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I22">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J22">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946247666666667</v>
+        <v>4.824089</v>
       </c>
       <c r="N22">
-        <v>11.838743</v>
+        <v>14.472267</v>
       </c>
       <c r="O22">
-        <v>0.08422273698876485</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="P22">
-        <v>0.08422273698876484</v>
+        <v>0.1181976021471384</v>
       </c>
       <c r="Q22">
-        <v>195.4284026039582</v>
+        <v>266.9887602807823</v>
       </c>
       <c r="R22">
-        <v>1758.855623435624</v>
+        <v>2402.898842527041</v>
       </c>
       <c r="S22">
-        <v>0.05106871382104799</v>
+        <v>0.04516231847943749</v>
       </c>
       <c r="T22">
-        <v>0.05106871382104798</v>
+        <v>0.04516231847943748</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H23">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I23">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J23">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7217316666666665</v>
+        <v>0.7217316666666668</v>
       </c>
       <c r="N23">
         <v>2.165195</v>
       </c>
       <c r="O23">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="P23">
-        <v>0.01540354824953871</v>
+        <v>0.01768353618551768</v>
       </c>
       <c r="Q23">
-        <v>35.74202093719556</v>
+        <v>39.94417245177611</v>
       </c>
       <c r="R23">
-        <v>321.67818843476</v>
+        <v>359.497552065985</v>
       </c>
       <c r="S23">
-        <v>0.009339988529336601</v>
+        <v>0.006756731765665026</v>
       </c>
       <c r="T23">
-        <v>0.009339988529336598</v>
+        <v>0.006756731765665023</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H24">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I24">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J24">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.331168666666667</v>
+        <v>4.718667333333333</v>
       </c>
       <c r="N24">
-        <v>6.993506</v>
+        <v>14.156002</v>
       </c>
       <c r="O24">
-        <v>0.04975293546513755</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="P24">
-        <v>0.04975293546513754</v>
+        <v>0.1156146091272429</v>
       </c>
       <c r="Q24">
-        <v>115.4455085460676</v>
+        <v>261.1542078730495</v>
       </c>
       <c r="R24">
-        <v>1039.009576914608</v>
+        <v>2350.387870857446</v>
       </c>
       <c r="S24">
-        <v>0.03016784438346047</v>
+        <v>0.04417537837849136</v>
       </c>
       <c r="T24">
-        <v>0.03016784438346047</v>
+        <v>0.04417537837849136</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H25">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I25">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J25">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>32.87637133333333</v>
+        <v>27.97761966666667</v>
       </c>
       <c r="N25">
-        <v>98.629114</v>
+        <v>83.93285900000001</v>
       </c>
       <c r="O25">
-        <v>0.7016635066625658</v>
+        <v>0.6854947241613126</v>
       </c>
       <c r="P25">
-        <v>0.7016635066625657</v>
+        <v>0.6854947241613125</v>
       </c>
       <c r="Q25">
-        <v>1628.123036310839</v>
+        <v>1548.418777184784</v>
       </c>
       <c r="R25">
-        <v>14653.10732679755</v>
+        <v>13935.76899466306</v>
       </c>
       <c r="S25">
-        <v>0.4254558104090542</v>
+        <v>0.2619218197845384</v>
       </c>
       <c r="T25">
-        <v>0.4254558104090541</v>
+        <v>0.2619218197845383</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.52258933333334</v>
+        <v>55.34490766666666</v>
       </c>
       <c r="H26">
-        <v>148.567768</v>
+        <v>166.034723</v>
       </c>
       <c r="I26">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511615</v>
       </c>
       <c r="J26">
-        <v>0.6063530543760464</v>
+        <v>0.3820916639511614</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.979377666666667</v>
+        <v>2.571656</v>
       </c>
       <c r="N26">
-        <v>20.938133</v>
+        <v>7.714968</v>
       </c>
       <c r="O26">
-        <v>0.1489572726339932</v>
+        <v>0.0630095283787885</v>
       </c>
       <c r="P26">
-        <v>0.1489572726339931</v>
+        <v>0.06300952837878848</v>
       </c>
       <c r="Q26">
-        <v>345.6368539885716</v>
+        <v>142.3280638704293</v>
       </c>
       <c r="R26">
-        <v>3110.731685897144</v>
+        <v>1280.952574833864</v>
       </c>
       <c r="S26">
-        <v>0.09032069723314722</v>
+        <v>0.02407541554302923</v>
       </c>
       <c r="T26">
-        <v>0.09032069723314719</v>
+        <v>0.02407541554302921</v>
       </c>
     </row>
   </sheetData>
